--- a/Impact Analysis/Impact Resistance 6.30.2020.xlsx
+++ b/Impact Analysis/Impact Resistance 6.30.2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christopher\Desktop\Update 6.18\Impact Analysis 6.18\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christopher\Desktop\REHTi\Impact Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D00310-DAD7-4B16-818C-245F6BE4374F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078674B8-FBAE-4F85-8A70-B6AE56624BAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="586" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="586" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relative Price to Performance" sheetId="1" state="hidden" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="144">
   <si>
     <t>Material</t>
   </si>
@@ -4534,7 +4534,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-33E8-4474-AE3A-6EC6B837E05C}"/>
@@ -4739,7 +4739,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-33E8-4474-AE3A-6EC6B837E05C}"/>
@@ -4944,7 +4944,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-33E8-4474-AE3A-6EC6B837E05C}"/>
@@ -5149,7 +5149,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-33E8-4474-AE3A-6EC6B837E05C}"/>
@@ -5355,7 +5355,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-33E8-4474-AE3A-6EC6B837E05C}"/>
@@ -7670,62 +7670,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
               <c:extLst>
@@ -7825,42 +7769,6 @@
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:categoryFilterExceptions>
-                <c15:categoryFilterException>
-                  <c15:sqref>'Axial Stress From Kinetic'!$H$35</c15:sqref>
-                  <c15:dLbl>
-                    <c:idx val="4"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:r>
-                            <a:rPr lang="en-US"/>
-                            <a:t>1kg</a:t>
-                          </a:r>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="1"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000001-27F2-4023-B179-D143BBCE754A}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c15:dLbl>
-                </c15:categoryFilterException>
-              </c15:categoryFilterExceptions>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-27F2-4023-B179-D143BBCE754A}"/>
             </c:ext>
@@ -7904,62 +7812,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
               <c:extLst>
@@ -8059,42 +7911,6 @@
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:categoryFilterExceptions>
-                <c15:categoryFilterException>
-                  <c15:sqref>'Axial Stress From Kinetic'!$H$35</c15:sqref>
-                  <c15:dLbl>
-                    <c:idx val="4"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:r>
-                            <a:rPr lang="en-US"/>
-                            <a:t>5kg</a:t>
-                          </a:r>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="1"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000004-27F2-4023-B179-D143BBCE754A}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c15:dLbl>
-                </c15:categoryFilterException>
-              </c15:categoryFilterExceptions>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-27F2-4023-B179-D143BBCE754A}"/>
             </c:ext>
@@ -8138,62 +7954,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
               <c:extLst>
@@ -8293,42 +8053,6 @@
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:categoryFilterExceptions>
-                <c15:categoryFilterException>
-                  <c15:sqref>'Axial Stress From Kinetic'!$H$35</c15:sqref>
-                  <c15:dLbl>
-                    <c:idx val="4"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:r>
-                            <a:rPr lang="en-US"/>
-                            <a:t>10kg</a:t>
-                          </a:r>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="1"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000007-27F2-4023-B179-D143BBCE754A}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c15:dLbl>
-                </c15:categoryFilterException>
-              </c15:categoryFilterExceptions>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-27F2-4023-B179-D143BBCE754A}"/>
             </c:ext>
@@ -8378,62 +8102,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
               <c:extLst>
@@ -8533,42 +8201,6 @@
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:categoryFilterExceptions>
-                <c15:categoryFilterException>
-                  <c15:sqref>'Axial Stress From Kinetic'!$H$35</c15:sqref>
-                  <c15:dLbl>
-                    <c:idx val="4"/>
-                    <c:tx>
-                      <c:rich>
-                        <a:bodyPr/>
-                        <a:lstStyle/>
-                        <a:p>
-                          <a:r>
-                            <a:rPr lang="en-US"/>
-                            <a:t>20kg</a:t>
-                          </a:r>
-                        </a:p>
-                      </c:rich>
-                    </c:tx>
-                    <c:showLegendKey val="0"/>
-                    <c:showVal val="1"/>
-                    <c:showCatName val="0"/>
-                    <c:showSerName val="0"/>
-                    <c:showPercent val="0"/>
-                    <c:showBubbleSize val="0"/>
-                    <c:extLst>
-                      <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                        <c15:showDataLabelsRange val="0"/>
-                      </c:ext>
-                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{0000000A-27F2-4023-B179-D143BBCE754A}"/>
-                      </c:ext>
-                    </c:extLst>
-                  </c15:dLbl>
-                </c15:categoryFilterException>
-              </c15:categoryFilterExceptions>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-27F2-4023-B179-D143BBCE754A}"/>
             </c:ext>
@@ -8792,7 +8424,7 @@
                         <c15:showDataLabelsRange val="0"/>
                       </c:ext>
                       <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{0000000D-27F2-4023-B179-D143BBCE754A}"/>
+                        <c16:uniqueId val="{00000000-3133-4FB3-A3B6-1E0D2276C054}"/>
                       </c:ext>
                     </c:extLst>
                   </c15:dLbl>
@@ -8963,7 +8595,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Axial Stress From Kinetic'!$E$29</c15:sqref>
@@ -9089,7 +8721,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000012-27F2-4023-B179-D143BBCE754A}"/>
                   </c:ext>
@@ -9102,7 +8734,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Axial Stress From Kinetic'!$F$29</c15:sqref>
@@ -9228,7 +8860,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000013-27F2-4023-B179-D143BBCE754A}"/>
                   </c:ext>
@@ -9241,7 +8873,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Axial Stress From Kinetic'!$G$29</c15:sqref>
@@ -9367,7 +8999,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000014-27F2-4023-B179-D143BBCE754A}"/>
                   </c:ext>
@@ -9380,7 +9012,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Axial Stress From Kinetic'!$H$29</c15:sqref>
@@ -9497,7 +9129,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000015-27F2-4023-B179-D143BBCE754A}"/>
                   </c:ext>
@@ -9527,7 +9159,7 @@
                 </c:tx>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
                           <c15:sqref>'Axial Stress From Kinetic'!$I$30:$I$35</c15:sqref>
@@ -10663,7 +10295,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Axial Stress From Kinetic'!$D$29</c15:sqref>
@@ -10718,7 +10350,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -10740,7 +10372,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Axial Stress From Kinetic'!$A$30:$C$35</c15:sqref>
@@ -10814,7 +10446,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Axial Stress From Kinetic'!$D$30:$D$34</c15:sqref>
@@ -10843,7 +10475,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-FA35-4314-9855-31C9EB6E1DF3}"/>
                   </c:ext>
@@ -10856,7 +10488,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Axial Stress From Kinetic'!$E$29</c15:sqref>
@@ -10911,7 +10543,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -10933,7 +10565,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Axial Stress From Kinetic'!$A$30:$C$35</c15:sqref>
@@ -11007,7 +10639,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Axial Stress From Kinetic'!$E$30:$E$34</c15:sqref>
@@ -11036,7 +10668,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-FA35-4314-9855-31C9EB6E1DF3}"/>
                   </c:ext>
@@ -11049,7 +10681,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Axial Stress From Kinetic'!$F$29</c15:sqref>
@@ -11104,7 +10736,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -11126,7 +10758,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Axial Stress From Kinetic'!$A$30:$C$35</c15:sqref>
@@ -11200,7 +10832,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Axial Stress From Kinetic'!$F$30:$F$34</c15:sqref>
@@ -11229,7 +10861,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-FA35-4314-9855-31C9EB6E1DF3}"/>
                   </c:ext>
@@ -11242,7 +10874,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Axial Stress From Kinetic'!$G$29</c15:sqref>
@@ -11303,7 +10935,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -11325,7 +10957,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Axial Stress From Kinetic'!$A$30:$C$35</c15:sqref>
@@ -11399,7 +11031,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Axial Stress From Kinetic'!$G$30:$G$34</c15:sqref>
@@ -11428,7 +11060,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000C-FA35-4314-9855-31C9EB6E1DF3}"/>
                   </c:ext>
@@ -11441,7 +11073,7 @@
                 <c:order val="10"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Axial Stress From Kinetic'!$H$29</c15:sqref>
@@ -11486,7 +11118,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -11508,7 +11140,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Axial Stress From Kinetic'!$A$30:$C$35</c15:sqref>
@@ -11582,7 +11214,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Axial Stress From Kinetic'!$H$30:$H$35</c15:sqref>
@@ -11614,7 +11246,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000E-FA35-4314-9855-31C9EB6E1DF3}"/>
                   </c:ext>
@@ -52957,7 +52589,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -53333,7 +52965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C771E7-B71A-40A9-99D7-24FF9E3C7D9B}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:B24"/>
     </sheetView>
   </sheetViews>
@@ -53727,7 +53359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57D70CA-6182-440F-AD6B-AD5EE1D4E577}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -54115,8 +53747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D63068-37C5-4763-B959-4EDF0F5FAA2E}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -54156,7 +53788,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="5">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -54255,7 +53887,7 @@
       </c>
       <c r="B19" s="10">
         <f>0.5*(B7*B6^2)</f>
-        <v>800</v>
+        <v>0.5</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -54266,7 +53898,7 @@
       </c>
       <c r="B20" s="17">
         <f>SQRT((B7*(B6^2)*B16*B10)/B11)</f>
-        <v>218752.50398566871</v>
+        <v>5468.8125996417175</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -54279,7 +53911,7 @@
       </c>
       <c r="B24" s="17">
         <f>B20/B16</f>
-        <v>255997069.65488622</v>
+        <v>6399926.741372155</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -54288,7 +53920,7 @@
       </c>
       <c r="B25" s="18">
         <f>B24/10^6</f>
-        <v>255.99706965488622</v>
+        <v>6.3999267413721554</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -54527,7 +54159,9 @@
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E37" s="18"/>
       <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="G37" s="18" t="s">
+        <v>51</v>
+      </c>
       <c r="H37" s="18"/>
       <c r="I37" s="18"/>
       <c r="J37" s="18"/>
@@ -54547,7 +54181,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -54583,7 +54217,7 @@
         <v>76</v>
       </c>
       <c r="B6" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -54591,7 +54225,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="5">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -54665,7 +54299,7 @@
       </c>
       <c r="B19" s="10">
         <f>B7*B6*9.81</f>
-        <v>981</v>
+        <v>147.15</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -54674,7 +54308,7 @@
       </c>
       <c r="B20" s="17">
         <f>SQRT((2*B6*B7*9.81*B16*B10)/(B11))</f>
-        <v>242238.151149855</v>
+        <v>93818.43252194635</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -54683,7 +54317,7 @@
       </c>
       <c r="B21" s="13">
         <f>B20*(10^-3)</f>
-        <v>242.23815114985501</v>
+        <v>93.818432521946349</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -54692,7 +54326,7 @@
       </c>
       <c r="B23" s="13">
         <f>(10^-6)*B20/B16</f>
-        <v>283.48135780444795</v>
+        <v>109.79185777368929</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -55301,7 +54935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43321E5A-C42B-4FE1-BE74-148589121E52}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
